--- a/Data/Forbrug loebende priser 2005.xlsx
+++ b/Data/Forbrug loebende priser 2005.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1270">
   <si>
     <t>10. decil</t>
   </si>
@@ -3831,6 +3831,9 @@
   </si>
   <si>
     <t>1111011 Ris</t>
+  </si>
+  <si>
+    <t>Forbrug</t>
   </si>
 </sst>
 </file>
@@ -3840,16 +3843,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3881,17 +3876,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4174,8 +4169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1254" workbookViewId="0">
-      <selection activeCell="A1263" sqref="A1263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4186,39 +4181,41 @@
     <col min="12" max="12" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -52027,8 +52024,8 @@
       </c>
     </row>
     <row r="1270" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1270" s="4"/>
-      <c r="B1270" s="3"/>
+      <c r="A1270" s="3"/>
+      <c r="B1270" s="4"/>
       <c r="C1270" s="5"/>
       <c r="D1270" s="5"/>
       <c r="E1270" s="5"/>
@@ -52041,8 +52038,8 @@
       <c r="L1270" s="5"/>
     </row>
     <row r="1271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1271" s="4"/>
-      <c r="B1271" s="3"/>
+      <c r="A1271" s="3"/>
+      <c r="B1271" s="4"/>
     </row>
     <row r="1275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1275" s="2"/>
@@ -52142,5 +52139,6 @@
     <mergeCell ref="C1270:L1270"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>